--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H2">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>0.003201973232333333</v>
+        <v>0.005037560014666666</v>
       </c>
       <c r="R2">
-        <v>0.028817759091</v>
+        <v>0.045338040132</v>
       </c>
       <c r="S2">
-        <v>0.0110687155502179</v>
+        <v>0.002224769949777768</v>
       </c>
       <c r="T2">
-        <v>0.0110687155502179</v>
+        <v>0.002224769949777767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,46 +602,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H3">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>0.01022971662033334</v>
+        <v>0.2136379320351111</v>
       </c>
       <c r="R3">
-        <v>0.09206744958300002</v>
+        <v>1.922741388316</v>
       </c>
       <c r="S3">
-        <v>0.03536251405427696</v>
+        <v>0.0943502906050898</v>
       </c>
       <c r="T3">
-        <v>0.03536251405427696</v>
+        <v>0.09435029060508979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H4">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I4">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J4">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>0.02399552235933334</v>
+        <v>0.09398850735244445</v>
       </c>
       <c r="R4">
-        <v>0.215959701234</v>
+        <v>0.845896566172</v>
       </c>
       <c r="S4">
-        <v>0.08294872948728783</v>
+        <v>0.04150874752328316</v>
       </c>
       <c r="T4">
-        <v>0.08294872948728782</v>
+        <v>0.04150874752328314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -732,10 +732,10 @@
         <v>0.231626</v>
       </c>
       <c r="I5">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J5">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
         <v>0.004918269275333333</v>
@@ -762,10 +762,10 @@
         <v>0.044264423478</v>
       </c>
       <c r="S5">
-        <v>0.01700167979492146</v>
+        <v>0.002172086815208079</v>
       </c>
       <c r="T5">
-        <v>0.01700167979492146</v>
+        <v>0.002172086815208077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,40 +794,40 @@
         <v>0.231626</v>
       </c>
       <c r="I6">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J6">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>0.01571296737933333</v>
+        <v>0.2085789299015555</v>
       </c>
       <c r="R6">
-        <v>0.141416706414</v>
+        <v>1.877210369114</v>
       </c>
       <c r="S6">
-        <v>0.05431724557077364</v>
+        <v>0.09211605103477656</v>
       </c>
       <c r="T6">
-        <v>0.05431724557077364</v>
+        <v>0.09211605103477655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -856,40 +856,40 @@
         <v>0.231626</v>
       </c>
       <c r="I7">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J7">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>0.03685741004133333</v>
+        <v>0.09176283490422223</v>
       </c>
       <c r="R7">
-        <v>0.331716690372</v>
+        <v>0.825865514138</v>
       </c>
       <c r="S7">
-        <v>0.1274102430169203</v>
+        <v>0.04052580952027442</v>
       </c>
       <c r="T7">
-        <v>0.1274102430169203</v>
+        <v>0.0405258095202744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H8">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I8">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J8">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>0.01662836040433333</v>
+        <v>0.002495338039333333</v>
       </c>
       <c r="R8">
-        <v>0.149655243639</v>
+        <v>0.022458042354</v>
       </c>
       <c r="S8">
-        <v>0.05748161462547526</v>
+        <v>0.001102032148159632</v>
       </c>
       <c r="T8">
-        <v>0.05748161462547526</v>
+        <v>0.001102032148159632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H9">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I9">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J9">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>0.05312455865633334</v>
+        <v>0.1058248153668889</v>
       </c>
       <c r="R9">
-        <v>0.478121027907</v>
+        <v>0.9524233383020001</v>
       </c>
       <c r="S9">
-        <v>0.1836432055583797</v>
+        <v>0.04673609217231603</v>
       </c>
       <c r="T9">
-        <v>0.1836432055583797</v>
+        <v>0.04673609217231602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H10">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I10">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J10">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>0.1246125950873333</v>
+        <v>0.04655688408155556</v>
       </c>
       <c r="R10">
-        <v>1.121513355786</v>
+        <v>0.419011956734</v>
       </c>
       <c r="S10">
-        <v>0.430766052341747</v>
+        <v>0.02056121542142769</v>
       </c>
       <c r="T10">
-        <v>0.430766052341747</v>
+        <v>0.02056121542142768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.131728</v>
+      </c>
+      <c r="I11">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J11">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.06370099999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.191103</v>
+      </c>
+      <c r="O11">
+        <v>0.01611173663836548</v>
+      </c>
+      <c r="P11">
+        <v>0.01611173663836548</v>
+      </c>
+      <c r="Q11">
+        <v>0.02403073510933333</v>
+      </c>
+      <c r="R11">
+        <v>0.216276615984</v>
+      </c>
+      <c r="S11">
+        <v>0.01061284772522</v>
+      </c>
+      <c r="T11">
+        <v>0.01061284772522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.131728</v>
+      </c>
+      <c r="I12">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J12">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.701496333333333</v>
+      </c>
+      <c r="N12">
+        <v>8.104489000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.68328279700753</v>
+      </c>
+      <c r="P12">
+        <v>0.68328279700753</v>
+      </c>
+      <c r="Q12">
+        <v>1.019119680776889</v>
+      </c>
+      <c r="R12">
+        <v>9.172077126992001</v>
+      </c>
+      <c r="S12">
+        <v>0.4500803631953477</v>
+      </c>
+      <c r="T12">
+        <v>0.4500803631953476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.131728</v>
+      </c>
+      <c r="I13">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J13">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.188504333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.565513</v>
+      </c>
+      <c r="O13">
+        <v>0.3006054663541045</v>
+      </c>
+      <c r="P13">
+        <v>0.3006054663541044</v>
+      </c>
+      <c r="Q13">
+        <v>0.4483545440515556</v>
+      </c>
+      <c r="R13">
+        <v>4.035190896464</v>
+      </c>
+      <c r="S13">
+        <v>0.1980096938891192</v>
+      </c>
+      <c r="T13">
+        <v>0.1980096938891192</v>
       </c>
     </row>
   </sheetData>
